--- a/upload/contohkmeans.xlsx
+++ b/upload/contohkmeans.xlsx
@@ -971,7 +971,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -998,172 +998,172 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>56497941</v>
+        <v>1144919</v>
       </c>
       <c r="B2" s="1">
-        <v>427562992</v>
+        <v>4500000</v>
       </c>
       <c r="C2" s="1">
-        <v>224027747</v>
+        <v>886892603</v>
       </c>
       <c r="D2" s="1">
-        <v>290888248</v>
+        <v>56270135</v>
       </c>
       <c r="E2" s="1">
-        <v>809575866</v>
+        <v>362749317</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>637762869</v>
+        <v>262009759</v>
       </c>
       <c r="B3" s="1">
-        <v>24307744</v>
+        <v>332035539</v>
       </c>
       <c r="C3" s="1">
-        <v>508148682</v>
+        <v>462705955</v>
       </c>
       <c r="D3" s="1">
-        <v>646592171</v>
+        <v>569824158</v>
       </c>
       <c r="E3" s="1">
-        <v>417505908</v>
+        <v>591280622</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>249101212</v>
+        <v>700000</v>
       </c>
       <c r="B4" s="1">
-        <v>754949234</v>
+        <v>667819292</v>
       </c>
       <c r="C4" s="1">
-        <v>3400000</v>
+        <v>523347549</v>
       </c>
       <c r="D4" s="1">
-        <v>514411872</v>
+        <v>64979081</v>
       </c>
       <c r="E4" s="1">
-        <v>788138725</v>
+        <v>980420713</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>814577349</v>
+        <v>338333425</v>
       </c>
       <c r="B5" s="1">
-        <v>497306585</v>
+        <v>445955941</v>
       </c>
       <c r="C5" s="1">
-        <v>569657806</v>
+        <v>594642107</v>
       </c>
       <c r="D5" s="1">
-        <v>280103947</v>
+        <v>594642107</v>
       </c>
       <c r="E5" s="1">
-        <v>878710241</v>
+        <v>966248527</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>1144919</v>
+        <v>685232904</v>
       </c>
       <c r="B6" s="1">
-        <v>4500000</v>
+        <v>41287367</v>
       </c>
       <c r="C6" s="1">
-        <v>886892603</v>
+        <v>539866884</v>
       </c>
       <c r="D6" s="1">
-        <v>56270135</v>
+        <v>921026785</v>
       </c>
       <c r="E6" s="1">
-        <v>362749317</v>
+        <v>775483465</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>262009759</v>
+        <v>638801273</v>
       </c>
       <c r="B7" s="1">
-        <v>332035539</v>
+        <v>348460902</v>
       </c>
       <c r="C7" s="1">
-        <v>462705955</v>
+        <v>7800000</v>
       </c>
       <c r="D7" s="1">
-        <v>569824158</v>
+        <v>4500000</v>
       </c>
       <c r="E7" s="1">
-        <v>591280622</v>
+        <v>89000000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>700000</v>
+        <v>56497941</v>
       </c>
       <c r="B8" s="1">
-        <v>667819292</v>
+        <v>427562992</v>
       </c>
       <c r="C8" s="1">
-        <v>523347549</v>
+        <v>224027747</v>
       </c>
       <c r="D8" s="1">
-        <v>64979081</v>
+        <v>290888248</v>
       </c>
       <c r="E8" s="1">
-        <v>980420713</v>
+        <v>809575866</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>338333425</v>
+        <v>637762869</v>
       </c>
       <c r="B9" s="1">
-        <v>445955941</v>
+        <v>24307744</v>
       </c>
       <c r="C9" s="1">
-        <v>594642107</v>
+        <v>508148682</v>
       </c>
       <c r="D9" s="1">
-        <v>594642107</v>
+        <v>646592171</v>
       </c>
       <c r="E9" s="1">
-        <v>966248527</v>
+        <v>417505908</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>685232904</v>
+        <v>249101212</v>
       </c>
       <c r="B10" s="1">
-        <v>41287367</v>
+        <v>754949234</v>
       </c>
       <c r="C10" s="1">
-        <v>539866884</v>
+        <v>3400000</v>
       </c>
       <c r="D10" s="1">
-        <v>921026785</v>
+        <v>514411872</v>
       </c>
       <c r="E10" s="1">
-        <v>775483465</v>
+        <v>788138725</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>638801273</v>
+        <v>814577349</v>
       </c>
       <c r="B11" s="1">
-        <v>348460902</v>
+        <v>497306585</v>
       </c>
       <c r="C11" s="1">
-        <v>7800000</v>
+        <v>569657806</v>
       </c>
       <c r="D11" s="1">
-        <v>4500000</v>
+        <v>280103947</v>
       </c>
       <c r="E11" s="1">
-        <v>89000000</v>
+        <v>878710241</v>
       </c>
     </row>
   </sheetData>
